--- a/outputs/SORs/SOR Testing_Corp Administration.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Administration.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -1463,7 +1463,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1534,7 +1534,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1605,7 +1605,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>

--- a/outputs/SORs/SOR Testing_Corp Administration.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Administration.xlsx
@@ -1463,7 +1463,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1534,7 +1534,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1605,7 +1605,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>

--- a/outputs/SORs/SOR Testing_Corp Administration.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Administration.xlsx
@@ -1463,7 +1463,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1534,7 +1534,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1605,7 +1605,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
